--- a/blobvis.xlsx
+++ b/blobvis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JWMacbook/Documents/GitHub/SpaceCandy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42815ECF-0696-B74E-A43B-5FE3CB346585}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD1E5E-041D-C144-93BA-DE4B6AE10475}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="560" windowWidth="28040" windowHeight="17040" xr2:uid="{F0627B8B-A1FD-B54E-A685-2F3B6836CFE1}"/>
+    <workbookView xWindow="1220" yWindow="1280" windowWidth="23800" windowHeight="15620" xr2:uid="{F0627B8B-A1FD-B54E-A685-2F3B6836CFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
-  <si>
-    <t>&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t xml:space="preserve">green </t>
   </si>
@@ -152,7 +149,19 @@
     <t xml:space="preserve">offsetUpright = </t>
   </si>
   <si>
-    <t>(0,1)</t>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>rotation 2</t>
+  </si>
+  <si>
+    <t>bCoordsupright</t>
+  </si>
+  <si>
+    <t>rotation4</t>
+  </si>
+  <si>
+    <t>(0,-1)</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +199,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -302,6 +335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B9A9EA-4C59-454F-A32C-C9349DAC9606}">
-  <dimension ref="J8:W36"/>
+  <dimension ref="I8:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,45 +674,48 @@
     <col min="23" max="23" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:23" x14ac:dyDescent="0.2">
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="T8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" t="s">
         <v>5</v>
       </c>
-      <c r="U8" t="s">
+    </row>
+    <row r="9" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="T9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="9:23" x14ac:dyDescent="0.2">
       <c r="T10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="9:23" x14ac:dyDescent="0.2">
       <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
         <v>15</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>16</v>
       </c>
-      <c r="V11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="10:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="10:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="9:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>8</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -686,7 +726,10 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>7</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -697,7 +740,10 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>6</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -708,13 +754,16 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="V15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" t="s">
         <v>9</v>
       </c>
-      <c r="W15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="10:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>5</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -725,44 +774,50 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
       <c r="T16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>1</v>
       </c>
-      <c r="U16" t="s">
-        <v>2</v>
-      </c>
       <c r="V16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="10:23" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>4</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="11" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="8"/>
       <c r="T17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" t="s">
         <v>3</v>
       </c>
-      <c r="U17" t="s">
-        <v>4</v>
-      </c>
       <c r="V17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="10:23" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>3</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -773,13 +828,22 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
       <c r="T18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>2</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -789,8 +853,20 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -801,13 +877,19 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="8"/>
       <c r="U20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="10:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -816,120 +898,277 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
       <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="U22" t="s">
         <v>28</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U22" t="s">
+      <c r="W22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
         <v>29</v>
       </c>
-      <c r="V22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="T23" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" t="s">
-        <v>13</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="V27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="10:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="16">
         <v>2</v>
       </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U25" t="s">
-        <v>24</v>
-      </c>
-      <c r="V25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U26" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-      <c r="V27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="U28" t="s">
-        <v>20</v>
-      </c>
-      <c r="V28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="T31" t="s">
-        <v>35</v>
-      </c>
-      <c r="U31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="T32" t="s">
-        <v>36</v>
-      </c>
-      <c r="U32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T33" t="s">
-        <v>37</v>
-      </c>
-      <c r="U33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T34" t="s">
-        <v>38</v>
-      </c>
-      <c r="U34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="U35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T36" t="s">
-        <v>39</v>
-      </c>
-      <c r="U36" t="s">
-        <v>40</v>
-      </c>
+      <c r="O44" s="15"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="15">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="10:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
